--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/92.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/92.xlsx
@@ -479,13 +479,13 @@
         <v>-2.507487906085218</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.23659936742503</v>
+        <v>-10.23255384584693</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.142404149607341</v>
+        <v>-3.140374842666874</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.028304371454372</v>
+        <v>-7.017241375553113</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.417030261857342</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.81018624722389</v>
+        <v>-10.80652040242821</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.245008526977948</v>
+        <v>-3.243162512277265</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.927598377995815</v>
+        <v>-6.917176904933801</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.301715891487283</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.9752932783609</v>
+        <v>-10.97195474113626</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.149866762227125</v>
+        <v>-3.148230224371909</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.559861775777414</v>
+        <v>-6.549950902526227</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.170913075211231</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.44114359807519</v>
+        <v>-11.43792289157613</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.287074096008414</v>
+        <v>-3.285084065976472</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.265442069472678</v>
+        <v>-6.25567521155275</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.018515641559236</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.88757803267521</v>
+        <v>-11.88524760276938</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.375630432429849</v>
+        <v>-3.373902248454741</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.980907051813445</v>
+        <v>-5.971127101590676</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.840964958690904</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.43520287593893</v>
+        <v>-12.43291172294163</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.248320879596905</v>
+        <v>-3.246448680290538</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.666259737618242</v>
+        <v>-5.656492879698314</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.634783780040006</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.02502421126153</v>
+        <v>-13.02320438116653</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.251751062941437</v>
+        <v>-3.250140709691905</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.508602226798177</v>
+        <v>-5.499044845723717</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.400104338109517</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.45225223759273</v>
+        <v>-13.45077280737162</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.365601728453087</v>
+        <v>-3.363768806055246</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.369431047590629</v>
+        <v>-5.360017681847427</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.140030577107689</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.12603451103933</v>
+        <v>-14.124489619304</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.238789683128128</v>
+        <v>-3.23690439151892</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.339790073956961</v>
+        <v>-5.330651646573436</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.867058616504776</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.57489102166506</v>
+        <v>-14.57352942216952</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.317016192607442</v>
+        <v>-3.314960701061291</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.341570627143436</v>
+        <v>-5.33211798449171</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5971889896808823</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.13118296941</v>
+        <v>-15.12989992373151</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.351475133686865</v>
+        <v>-3.349275626809455</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.086283814032619</v>
+        <v>-5.076935909803627</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3460061993711676</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.22163768974349</v>
+        <v>-15.22069504393888</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.434781456668768</v>
+        <v>-3.432123719191897</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.636589396025013</v>
+        <v>-4.627189122584653</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1286890631967818</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.90340626792353</v>
+        <v>-15.90216249915357</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.145179717809787</v>
+        <v>-3.143111133960795</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.268132717150316</v>
+        <v>-4.258496782258805</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04480991021962161</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.51278750369167</v>
+        <v>-16.51189722709843</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.074258713316157</v>
+        <v>-3.071875914198963</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.215514752029418</v>
+        <v>-4.205643155686757</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1714621766831797</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.26974517709175</v>
+        <v>-17.26837048529337</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.893637303311704</v>
+        <v>-2.891712734793971</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.96757272081281</v>
+        <v>-3.957413093807631</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.252569691347524</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.78376207896076</v>
+        <v>-17.78254449479648</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.759703045240847</v>
+        <v>-2.757817753631638</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.708266570729584</v>
+        <v>-3.697426143976634</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2949875114570195</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.19736101803372</v>
+        <v>-18.19609106465807</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.842276199263613</v>
+        <v>-2.84028616923167</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.614172190206098</v>
+        <v>-3.603056825093473</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3080127745160485</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.7566772877351</v>
+        <v>-18.75493601145715</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.622953942059018</v>
+        <v>-2.621042465844126</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.239601405904315</v>
+        <v>-3.228001625586546</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2980717833001075</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.07421800085833</v>
+        <v>-19.07233270924912</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.382775646427553</v>
+        <v>-2.380968908635395</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.855342317499655</v>
+        <v>-2.843415229610843</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.267809128624643</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.73400460256711</v>
+        <v>-19.73122903436467</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.141288120511916</v>
+        <v>-2.139599213445333</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.807568504430197</v>
+        <v>-2.795196278244766</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2163813243470426</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.28952410444439</v>
+        <v>-20.28639504406522</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.956306973661168</v>
+        <v>-1.954984651074154</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.780493622153508</v>
+        <v>-2.767938103728292</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.1408285323359591</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.47563118933953</v>
+        <v>-20.47216172908647</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.833173865434734</v>
+        <v>-1.832126481207396</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.595944521296537</v>
+        <v>-2.583035510694595</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.038980688708938</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.9874093074226</v>
+        <v>-20.98321977051324</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.628698279652657</v>
+        <v>-1.627467603185534</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.748247280254336</v>
+        <v>-2.735390638863761</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.08864870242949778</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.14687355603482</v>
+        <v>-21.14254000379421</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.441478349015974</v>
+        <v>-1.440326226365902</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.764756674137753</v>
+        <v>-2.752030955775595</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.2363948741685361</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.27407837044503</v>
+        <v>-21.27022923340957</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.446675993244139</v>
+        <v>-1.44539294756565</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.979260963896593</v>
+        <v>-2.966744722379902</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.3928006111927334</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.35032794219525</v>
+        <v>-21.34608603607452</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.300160032142383</v>
+        <v>-1.299439955486088</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.243293435305682</v>
+        <v>-3.231431808931079</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.5436169244500373</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.2759505697514</v>
+        <v>-21.27206215580741</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.236858747902637</v>
+        <v>-1.235772086766774</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.282256128562659</v>
+        <v>-3.270525425216472</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.6748562292164331</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.32454919789989</v>
+        <v>-21.32030729177917</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.089151387242284</v>
+        <v>-1.088248018346205</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.598147211527826</v>
+        <v>-3.586560523512898</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.775481113364503</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.35892958516226</v>
+        <v>-21.3545174791046</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.175940262780086</v>
+        <v>-1.174879786249906</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.773649531121164</v>
+        <v>-3.761656981718143</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.8395181679066288</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.20271222765478</v>
+        <v>-21.19843104462554</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.243889314528644</v>
+        <v>-1.242894299512673</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.826961388292672</v>
+        <v>-3.815387792580586</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.8640767915959565</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.09102179211202</v>
+        <v>-21.08691080901972</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.323844007983065</v>
+        <v>-1.322587146910259</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.1527240676005</v>
+        <v>-4.141517056367983</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.8494717918164957</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.04399424030454</v>
+        <v>-21.03973924188098</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.399674626042342</v>
+        <v>-1.398391580363853</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.067283699255396</v>
+        <v>-4.05639090329108</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.8004447281747413</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.6459358647047</v>
+        <v>-20.64147138943567</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.536659390675323</v>
+        <v>-1.535153775848524</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.008970582398348</v>
+        <v>-3.998470555519284</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.7242590732994397</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.37792333323172</v>
+        <v>-20.37330175032859</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.574103376802659</v>
+        <v>-1.572859608032695</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.971801534630688</v>
+        <v>-3.961209861631731</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6298329448120299</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.14752498782303</v>
+        <v>-20.14309978946252</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.739943576898803</v>
+        <v>-1.738516515889055</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.87685615442249</v>
+        <v>-3.866775081234361</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.5281556700957888</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.86022749426419</v>
+        <v>-19.85565828057243</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.743661790905853</v>
+        <v>-1.742129991473371</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.689256547003398</v>
+        <v>-3.678756520124333</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.430742292502546</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.545082672561</v>
+        <v>-19.54070984341187</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.817672578870131</v>
+        <v>-1.816232425557541</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.342624736965858</v>
+        <v>-3.332766232926038</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.347218487107066</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.40547944735968</v>
+        <v>-19.40074003373097</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.750705449834702</v>
+        <v>-1.749016542768119</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.012423766994685</v>
+        <v>-3.002800924406016</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.2842333362092066</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.04682890331344</v>
+        <v>-19.04260008949556</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.907420314850163</v>
+        <v>-1.906438392137034</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.170028908603383</v>
+        <v>-3.160681004374391</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.2450755592391149</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.68537660645906</v>
+        <v>-18.68146200790938</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.776444917221535</v>
+        <v>-1.775868855896499</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.753025970791566</v>
+        <v>-2.743429312808581</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.2307419366316793</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.15005852786657</v>
+        <v>-18.14678545215613</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.875579834339085</v>
+        <v>-1.874728834654373</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.65019902427265</v>
+        <v>-2.640484535564089</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.2389550775446238</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.79279576792155</v>
+        <v>-17.78924775385144</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.144940873004757</v>
+        <v>-2.143684011931952</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.556235566777582</v>
+        <v>-2.54628541661787</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.2641202810362533</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62992752057047</v>
+        <v>-17.62708649085382</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.260794660851191</v>
+        <v>-2.259655630503961</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.394820565041941</v>
+        <v>-2.385498845418632</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.3001563725012999</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.4647681202221</v>
+        <v>-17.46214965965375</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.159695898307382</v>
+        <v>-2.15792843742375</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.332710680360793</v>
+        <v>-2.32298309934939</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.34193068548217</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.05182379629122</v>
+        <v>-17.04946718177971</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.291155711141154</v>
+        <v>-2.289728650131406</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.15102879382616</v>
+        <v>-2.141510689660225</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.3851903559712245</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.13392562741168</v>
+        <v>-17.13183085895701</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.205060727653963</v>
+        <v>-2.203856235792525</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.034062160238179</v>
+        <v>-2.024688071403503</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.4263203202662455</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.00305496820579</v>
+        <v>-17.00084236902553</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.335708817711548</v>
+        <v>-2.334268664398958</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.816219333254699</v>
+        <v>-1.806976167448441</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.4633246792116297</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.55933064029401</v>
+        <v>-16.5576024563189</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.363084822953597</v>
+        <v>-2.361644669641007</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.764334537092939</v>
+        <v>-1.754829525229846</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.4957290552683368</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.29791662945326</v>
+        <v>-16.29672522989467</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.551496153148877</v>
+        <v>-2.550147645956179</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.578620221283054</v>
+        <v>-1.569062840208594</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5243943759102779</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.84671659661886</v>
+        <v>-15.84549901245458</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.651626085282398</v>
+        <v>-2.650068101244233</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.495405544421044</v>
+        <v>-1.486319486248886</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.5524640807120291</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.68578601008836</v>
+        <v>-15.68452914901555</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.567861531701034</v>
+        <v>-2.566604670628229</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.446715270152664</v>
+        <v>-1.437720858100399</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.5842446205181732</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.24090955952651</v>
+        <v>-15.23995382141906</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.43675521104399</v>
+        <v>-2.435053211674565</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.469561338611476</v>
+        <v>-1.460763311101836</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.6246324073584343</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.91605024911476</v>
+        <v>-14.91547418778972</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.634226414805744</v>
+        <v>-2.632157830956751</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.65921643757672</v>
+        <v>-1.650274394735821</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.6798875617709201</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.52050559566053</v>
+        <v>-14.51960222676445</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.665464649386102</v>
+        <v>-2.663749557713836</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.691096194996323</v>
+        <v>-1.682127967549741</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.7547006682041995</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.61656382161028</v>
+        <v>-14.61585683725682</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.496888157996037</v>
+        <v>-2.495029050992512</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.57615886834881</v>
+        <v>-1.567190640902228</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.8515700555997278</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.45579034271388</v>
+        <v>-14.45436328170413</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.650395408815275</v>
+        <v>-2.648601763325959</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.773093287694053</v>
+        <v>-1.764622567755457</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.9732022793899786</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.39195227405762</v>
+        <v>-14.3911929204928</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.513751044056181</v>
+        <v>-2.511957398566864</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.127318633379794</v>
+        <v>-2.119240682526449</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.120738628064728</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.06717151746293</v>
+        <v>-14.06673947146915</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.496888157996037</v>
+        <v>-2.49493740487262</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.350843519796583</v>
+        <v>-2.342516815189245</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.29343756448177</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.75409527960873</v>
+        <v>-13.75367632591779</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.548039785198661</v>
+        <v>-2.546023570561035</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.532682513965316</v>
+        <v>-2.524735486140389</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.491549691209308</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.76014392352161</v>
+        <v>-13.75931910844258</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.421384847507803</v>
+        <v>-2.419748309652587</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.691505239738295</v>
+        <v>-2.683505842702001</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.71332271079055</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.56746450259992</v>
+        <v>-13.5664825798868</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.406394160754027</v>
+        <v>-2.40490163823007</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.867203943874259</v>
+        <v>-2.859296192957857</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.954613341474706</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.45536820566907</v>
+        <v>-13.45373166781385</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.496325188973843</v>
+        <v>-2.494911220266937</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.865488852201993</v>
+        <v>-2.857751301222533</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.212504246371274</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.24026166997951</v>
+        <v>-13.23858585521577</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.366017498790144</v>
+        <v>-2.364498791660504</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.951610020294867</v>
+        <v>-2.943964115435299</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.482337432998399</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.12142283708516</v>
+        <v>-13.11932806863048</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.352257488503489</v>
+        <v>-2.350935165916475</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.22074848981223</v>
+        <v>-3.213246600283921</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.75706010110089</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.05093387858531</v>
+        <v>-13.04886529473631</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.409064990533739</v>
+        <v>-2.407729575643883</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.18213928873198</v>
+        <v>-3.174873060654822</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.029803233155477</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.11778317689516</v>
+        <v>-13.11549202389786</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.53710771232582</v>
+        <v>-2.535824666647331</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.125344879004572</v>
+        <v>-3.117960820201839</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.29165995548735</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.16572718990156</v>
+        <v>-13.16301708321332</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.597934551328479</v>
+        <v>-2.596939536312508</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.224584534544856</v>
+        <v>-3.21695172198813</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.532120162512198</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.97299539976851</v>
+        <v>-12.97019364696038</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.400712101320718</v>
+        <v>-2.399756363213272</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.052407659873316</v>
+        <v>-3.044460632048389</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.741823147744964</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.10510982774437</v>
+        <v>-13.10207241348509</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.67037426295175</v>
+        <v>-2.669614909386929</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.996097665351052</v>
+        <v>-2.987954252983499</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.91064443209542</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.01736521409912</v>
+        <v>-13.0146289228052</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.702437312611137</v>
+        <v>-2.701547036017899</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.839566092575375</v>
+        <v>-2.831435772510664</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.028626475742647</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.13337610957966</v>
+        <v>-13.13026014150332</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.774706824297465</v>
+        <v>-2.773973655338328</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.836725062858721</v>
+        <v>-2.827861573834872</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.089016862540555</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.25141631200066</v>
+        <v>-13.24764572878224</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.781959960071781</v>
+        <v>-2.781410083352428</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.726291488388762</v>
+        <v>-2.717218522519445</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.08763720567547</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.49375483760101</v>
+        <v>-13.49019373122806</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.845942044059296</v>
+        <v>-2.845536182671203</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.792459986950845</v>
+        <v>-2.783504851807105</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.02444543859265</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.76032721576139</v>
+        <v>-13.75764329367884</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.920895477828178</v>
+        <v>-2.920371785714509</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.638049367235528</v>
+        <v>-2.628766924520744</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.904608647934393</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.88442915439811</v>
+        <v>-13.88143101704736</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.088725707956264</v>
+        <v>-3.08862096953353</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.270640072588169</v>
+        <v>-2.261017229999501</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.735700988802348</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.38367793866165</v>
+        <v>-14.38105947809331</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.207158679462518</v>
+        <v>-3.206805187285792</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.997992865909224</v>
+        <v>-1.988173638777929</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.526507501980959</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.15664749843716</v>
+        <v>-15.15395048405176</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.417787647580207</v>
+        <v>-3.417316324677905</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.846004322219626</v>
+        <v>-1.836067264362756</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.285602202789985</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.57941104949934</v>
+        <v>-15.57680568123383</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.347102304537728</v>
+        <v>-3.346945196903627</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.805064691233549</v>
+        <v>-1.794420649023225</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.019774648359047</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.04353318523853</v>
+        <v>-16.041674078235</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.54888087593441</v>
+        <v>-3.548396460729267</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.632049909180139</v>
+        <v>-1.621510605392549</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.736479323245143</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.67620562776209</v>
+        <v>-16.67437270536426</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.699337620191526</v>
+        <v>-3.698853204986383</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.371958220926409</v>
+        <v>-1.361811686224071</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.443982922681351</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.38652851843995</v>
+        <v>-17.38507527282451</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.959494769959465</v>
+        <v>-3.959180554691264</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.360541732848423</v>
+        <v>-1.349714398398316</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.148594396952241</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.23327320472858</v>
+        <v>-18.23222582050124</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.191896237702944</v>
+        <v>-4.191372545589275</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.427744523335003</v>
+        <v>-1.416458958285435</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.856949909698968</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.01991112867085</v>
+        <v>-19.01936125195149</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.424677382228834</v>
+        <v>-4.424284613143582</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.199152915718466</v>
+        <v>-1.187945904485949</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.576664622868366</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.93353129787502</v>
+        <v>-19.9332432672125</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.592245766300086</v>
+        <v>-4.591761351094942</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.205489590293862</v>
+        <v>-1.193955271490301</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.313769867034949</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.16474454941378</v>
+        <v>-21.16475764171662</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.813715161170724</v>
+        <v>-4.813374761296839</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.169158449908072</v>
+        <v>-1.157532484984619</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.074323689103895</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.24564507202668</v>
+        <v>-22.24556651820963</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.859341836574139</v>
+        <v>-4.858896698277521</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.40800133064968</v>
+        <v>-1.396192073486443</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.8651101233877262</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.66602900732554</v>
+        <v>-23.66670980707331</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.903266512608131</v>
+        <v>-4.90295229733993</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.400342333487271</v>
+        <v>-1.387996291907523</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.6916255398407622</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.02876753321229</v>
+        <v>-25.02965780980552</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.164903092597184</v>
+        <v>-5.164510323511933</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.542393819319998</v>
+        <v>-1.530519100642553</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5593815086248701</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.57183943844096</v>
+        <v>-26.57275589963988</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.264208209651676</v>
+        <v>-5.263736886749374</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.731289564720422</v>
+        <v>-1.718956615443516</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4747469260529369</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.11178228329046</v>
+        <v>-28.1129213136377</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.515292393550299</v>
+        <v>-5.515056732099148</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.998254711966059</v>
+        <v>-1.985987224203361</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4432787915336237</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.80339945656137</v>
+        <v>-29.80423736394323</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.664544645945976</v>
+        <v>-5.664178061466408</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.213269601535726</v>
+        <v>-2.200321314025258</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4672044393078524</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.52926609406622</v>
+        <v>-31.53024801677935</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.814647898026365</v>
+        <v>-5.81407183670133</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.656993929447506</v>
+        <v>-2.64413728805693</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.5455576268389445</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.17818926777025</v>
+        <v>-33.1792104673919</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.769898406913346</v>
+        <v>-5.769335437891152</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.078330419499934</v>
+        <v>-3.065932008708819</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.6738623564314558</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.16304784009013</v>
+        <v>-35.16379410135211</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.978354052759308</v>
+        <v>-5.977542329983121</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.26049672123971</v>
+        <v>-3.247836464391761</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.844654405456326</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.99377073105437</v>
+        <v>-36.99470028455613</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.289296245250302</v>
+        <v>-6.288157214903072</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.852033148234578</v>
+        <v>-3.839464537506521</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.046031574960328</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.08518755620306</v>
+        <v>-39.08593381746504</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.282121663293037</v>
+        <v>-6.281192109791274</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.175845074418988</v>
+        <v>-4.163132448359672</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.268054565129461</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.33521763027926</v>
+        <v>-41.33605553766113</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.479448851723532</v>
+        <v>-6.478152713742201</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.694313359254182</v>
+        <v>-4.681679287011917</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.490960579729517</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.27522197306339</v>
+        <v>-43.27598132662821</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.591584425562916</v>
+        <v>-6.590340656792952</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.975994254893918</v>
+        <v>-4.963674397919855</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.704010297260179</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.36483206041992</v>
+        <v>-45.36525101411085</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.704335337635861</v>
+        <v>-6.702973738140321</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.068583020590606</v>
+        <v>-5.056236979010858</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.883945836395736</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.52177586129145</v>
+        <v>-47.52197224583407</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.833163597598445</v>
+        <v>-6.831422321320495</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.547276889392636</v>
+        <v>-5.534996309327097</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.036128883254044</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.66931938872261</v>
+        <v>-49.66959432708229</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.262578038504218</v>
+        <v>-7.261020054466053</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.980907051813445</v>
+        <v>-5.968469364113806</v>
       </c>
     </row>
   </sheetData>
